--- a/result/month/month_description.xlsx
+++ b/result/month/month_description.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,32 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>2642</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>5607</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Y9999</t>
         </is>
       </c>
     </row>
@@ -476,10 +496,22 @@
         <v>-0.006273868281723633</v>
       </c>
       <c r="E2" t="n">
+        <v>-0.002850824426195848</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.0009701893535400422</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.005491496872657779</v>
+      </c>
+      <c r="H2" t="n">
         <v>-0.004505654890963932</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>-0.005031626962246504</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.00369388237304221</v>
       </c>
     </row>
     <row r="3">
@@ -498,10 +530,22 @@
         <v>-0.003826110715871689</v>
       </c>
       <c r="E3" t="n">
+        <v>0.00435939032155308</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.005378827359062921</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.007793940980888481</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>0.001236094572694579</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.008676327977973131</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +564,22 @@
         <v>0.09711036382513467</v>
       </c>
       <c r="E4" t="n">
+        <v>0.1579795437669475</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.09935392185592946</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1251450142031844</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.134023018910548</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>0.1191936395967004</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.05247659305091318</v>
       </c>
     </row>
     <row r="5">
@@ -542,10 +598,22 @@
         <v>0.009430422762250024</v>
       </c>
       <c r="E5" t="n">
+        <v>0.02495753624881289</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.009871201788154139</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01566127457991522</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.01796216959789711</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>0.01420712372030812</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.00275379281823115</v>
       </c>
     </row>
     <row r="6">
@@ -564,10 +632,22 @@
         <v>3.350149709705347</v>
       </c>
       <c r="E6" t="n">
+        <v>7.104191022101223</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.799175202726839</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.858733915207065</v>
+      </c>
+      <c r="H6" t="n">
         <v>17.76103875180705</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>4.535181496771575</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.775158690981898</v>
       </c>
     </row>
     <row r="7">
@@ -586,10 +666,22 @@
         <v>-0.369312858271728</v>
       </c>
       <c r="E7" t="n">
+        <v>-1.474608955973709</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.3186389566510019</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.6226603296383129</v>
+      </c>
+      <c r="H7" t="n">
         <v>-2.514071651876927</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>-0.8416032239028107</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5504680903020843</v>
       </c>
     </row>
     <row r="8">
@@ -608,10 +700,22 @@
         <v>-0.4113735447943307</v>
       </c>
       <c r="E8" t="n">
+        <v>-0.7918820212456343</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.4131871542020749</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.6602830331614995</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.8931683144533014</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>-0.6043159668533296</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.139779297350147</v>
       </c>
     </row>
     <row r="9">
@@ -630,10 +734,22 @@
         <v>0.3939927069459275</v>
       </c>
       <c r="E9" t="n">
+        <v>0.4445762382247898</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4565136344122507</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3860691777605849</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.4594124324896205</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>0.3474013071534032</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2086327681487425</v>
       </c>
     </row>
     <row r="10">
@@ -652,10 +768,22 @@
         <v>-1.442989704796436</v>
       </c>
       <c r="E10" t="n">
+        <v>-0.6556896180250451</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.2231435513142097</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1.263044280711289</v>
+      </c>
+      <c r="H10" t="n">
         <v>-0.5406785869156718</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>-1.157274201316696</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.8495929457997082</v>
       </c>
     </row>
     <row r="11">
@@ -674,11 +802,23 @@
         <v>230</v>
       </c>
       <c r="E11" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="F11" t="n">
         <v>230</v>
       </c>
+      <c r="G11" t="n">
+        <v>230</v>
+      </c>
+      <c r="H11" t="n">
+        <v>120</v>
+      </c>
+      <c r="I11" t="n">
+        <v>230</v>
+      </c>
+      <c r="J11" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -696,10 +836,22 @@
         <v>-0.04416183527660333</v>
       </c>
       <c r="E12" t="n">
+        <v>-0.05370417897186108</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.0461845415485227</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.05930619392178271</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.03646964594170921</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>-0.05228620866924782</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.03237357187821921</v>
       </c>
     </row>
     <row r="13">
@@ -718,10 +870,22 @@
         <v>0.03814674976894827</v>
       </c>
       <c r="E13" t="n">
+        <v>0.06199033569040585</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04585694714875244</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.05122217274314755</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.04572235354867282</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>0.05848652978864133</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02346325224122303</v>
       </c>
     </row>
   </sheetData>
